--- a/02 Red Neuronal Simple/diapositivas/06 Perceptron.xlsx
+++ b/02 Red Neuronal Simple/diapositivas/06 Perceptron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\175199\Redes-Neuronales\02 Red Neuronal Simple\diapositivas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB449D9-2EBE-491B-B151-5DC92B97A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F0B34-72F7-4826-BA28-952C8A8D3C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{478A0F13-5A49-4733-890A-B2A689C14FEE}"/>
   </bookViews>
